--- a/_site/Data/OtherHardships.xlsx
+++ b/_site/Data/OtherHardships.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{870B050A-8F25-0845-B1C6-36F524CFE145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77A32275-825F-9C43-BD85-03B708FAC0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19400" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13680" yWindow="500" windowWidth="14180" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -133,16 +133,16 @@
 •Not applicable </t>
   </si>
   <si>
-    <t>19, 21, 23, 25, 27, 31, 33, 37, 39, 41, 45, 49, 53, 57, 61, 65, 69, 73</t>
-  </si>
-  <si>
-    <t>19, 21, 23, 25, 27, 31, 33, 37, 39, 41, 45, 49, 53, 57, 61, 65, 73</t>
-  </si>
-  <si>
-    <t>39, 41, 45, 49, 53, 57, 61, 65, 69, 73</t>
-  </si>
-  <si>
-    <t>19, 21, 23, 25, 27, 31, 33, 37, 39, 45, 49, 53, 57, 61, 65, 69, 73</t>
+    <t>19, 21, 23, 25, 27, 31, 33, 37, 39, 41, 45, 49, 53, 57, 61, 65, 69, 73, 81</t>
+  </si>
+  <si>
+    <t>19, 21, 23, 25, 27, 31, 33, 37, 39, 41, 45, 49, 53, 57, 61, 65, 73, 81</t>
+  </si>
+  <si>
+    <t>39, 41, 45, 49, 53, 57, 61, 65, 69, 73, 81</t>
+  </si>
+  <si>
+    <t>19, 21, 23, 25, 27, 31, 33, 37, 39, 45, 49, 53, 57, 61, 65, 69, 73, 81</t>
   </si>
 </sst>
 </file>
@@ -1390,7 +1390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B13" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>

--- a/_site/Data/OtherHardships.xlsx
+++ b/_site/Data/OtherHardships.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77A32275-825F-9C43-BD85-03B708FAC0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA848E86-4A01-DA46-90D8-E3B69A36BD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13680" yWindow="500" windowWidth="14180" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
   <si>
     <t>Question</t>
   </si>
@@ -136,13 +136,22 @@
     <t>19, 21, 23, 25, 27, 31, 33, 37, 39, 41, 45, 49, 53, 57, 61, 65, 69, 73, 81</t>
   </si>
   <si>
-    <t>19, 21, 23, 25, 27, 31, 33, 37, 39, 41, 45, 49, 53, 57, 61, 65, 73, 81</t>
-  </si>
-  <si>
     <t>39, 41, 45, 49, 53, 57, 61, 65, 69, 73, 81</t>
   </si>
   <si>
     <t>19, 21, 23, 25, 27, 31, 33, 37, 39, 45, 49, 53, 57, 61, 65, 69, 73, 81</t>
+  </si>
+  <si>
+    <t>19, 21, 23, 25, 27, 31, 33, 37, 39, 41, 45, 49, 53, 57, 61, 65, 73, 81, 85</t>
+  </si>
+  <si>
+    <t>39, 41, 45, 49, 53, 57, 61, 65, 69, 73, 81, 85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19, 21, 23, 25, 27, 31, 33, 37, 39, 41, 45, 49, 53, 57, 61, 65, 69, 73, 81, </t>
+  </si>
+  <si>
+    <t>39, 41, 45, 49, 53, 57, 61, 65, 69, 73, 81,</t>
   </si>
 </sst>
 </file>
@@ -1390,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1452,7 +1461,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -1497,7 +1506,7 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -1527,7 +1536,7 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -1542,7 +1551,7 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
@@ -1602,7 +1611,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
@@ -1617,7 +1626,7 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
@@ -1632,7 +1641,7 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="204" customHeight="1" x14ac:dyDescent="0.2">
@@ -1647,7 +1656,7 @@
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/_site/Data/OtherHardships.xlsx
+++ b/_site/Data/OtherHardships.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA848E86-4A01-DA46-90D8-E3B69A36BD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9D65404-DE2B-D344-8A7F-ED61D877BAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13680" yWindow="500" windowWidth="14180" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14240" yWindow="500" windowWidth="14180" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
   <si>
     <t>Question</t>
   </si>
@@ -34,7 +45,18 @@
     <t>Source Link</t>
   </si>
   <si>
-    <t>Occurrence</t>
+    <t>Dates Used</t>
+  </si>
+  <si>
+    <t>Please describe your housing status:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o I rent the home I live in 
+o I own the home I live in  
+o Not applicable/I am currently houseless  </t>
+  </si>
+  <si>
+    <t>01/03/2022-01/24/2022 93</t>
   </si>
   <si>
     <t>In the last 30 days, your household did not pay the full amount of the rent or mortgage or was late with a payment because your household could not afford to pay.</t>
@@ -61,9 +83,15 @@
     </r>
   </si>
   <si>
+    <t>08/10/2020-08/13/2020 08/24/2020-08/27/2020 10/05/2020-10/08/2020 09/08/2020-09/10/2020 09/21/2020-09/24/2020 10/05/2020-10/08/2020 11/03/2020-11/05/2020 11/17/2020-11/19/2020 12/15/2020-12/17/2020 01/05/2021-01/07/2021 01/20/2021-01/22/2021 02/17/2021-02/19/2021 03/17/2021-03/20/2021 04/14/2021-04/16/2021 05/12/2021-05/14/2021 06/09/2021-06/11/2021 07/07/2021-07/09/2021 08/04/2021-08/06/2021 09/01/2021-09/03/2021 10/05/2021-10/08/2021 10/27/2021-11/02/2021 01/03/2022-01/24/2022   93</t>
+  </si>
+  <si>
     <t>In the last 30 days, you did not have enough money to pay for food to feed your household.</t>
   </si>
   <si>
+    <t xml:space="preserve">08/10/2020-08/13/2020 08/24/2020-08/27/2020 10/05/2020-10/08/2020 09/08/2020-09/10/2020 09/21/2020-09/24/2020 10/05/2020-10/08/2020 11/03/2020-11/05/2020 11/17/2020-11/19/2020 12/15/2020-12/17/2020 01/05/2021-01/07/2021 01/20/2021-01/22/2021 02/17/2021-02/19/2021 03/17/2021-03/20/2021 04/14/2021-04/16/2021 05/12/2021-05/14/2021 06/09/2021-06/11/2021 07/07/2021-07/09/2021 08/04/2021-08/06/2021 09/01/2021-09/03/2021 10/05/2021-10/08/2021 10/27/2021-11/02/2021 </t>
+  </si>
+  <si>
     <t>In the last 30 days, you were evicted from the place you rented.</t>
   </si>
   <si>
@@ -79,42 +107,7 @@
     <t xml:space="preserve">In the last 30 days, the gas or electric company turned off service, or the oil company would not deliver oil. </t>
   </si>
   <si>
-    <t xml:space="preserve">Please think about the upcoming month: How worried are you about your household not being able to pay the full amount of the rent or mortgage or being late with a payment because your household cannot afford to pay in the next month? </t>
-  </si>
-  <si>
-    <t>•Not at all worried
-•Slightly worried
-•Somewhat worried
-•Very worried
-•Extremely worried</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please think about the upcoming month: How worried are you about having enough money to pay for food to feed your household in the next month? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please think about the upcoming month: If you rent the place you currently live, how worried are you about being evicted in the next month? </t>
-  </si>
-  <si>
-    <t>RAPID Team Developed</t>
-  </si>
-  <si>
-    <t>Please think about the upcoming month: If you own the home where you currently live, how worried are you about your mortgage being foreclosed on in the next month?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please think about the upcoming month: How worried are you about household not being able to pay the full amount of the gas, oil, or electricity bills in the next month?   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please think about the upcoming month: How worried are you about the gas or electric company turning off service, or the oil company not delivering oil in the next month?  </t>
-  </si>
-  <si>
-    <t>[Display this question if "If you rent the place you currently live, how worried are you about being evicted in the next month?"  Not applicable or Not at all worried is NOT selected OR "If you own the home where you currently live, how worried are you about your mortgae being foreclosed on in the next month?" Not applicable or Not at all worrie is NOT selected] 
-Is there anything else you would like to share about your concern about eviction or foreclosure?</t>
-  </si>
-  <si>
-    <t>Open ended</t>
-  </si>
-  <si>
-    <t>If you rent the place you currently live, have you received an eviction notice in the last 30 days?</t>
+    <t>08/10/2020-08/13/2020 08/24/2020-08/27/2020 10/05/2020-10/08/2020 09/08/2020-09/10/2020 09/21/2020-09/24/2020 10/05/2020-10/08/2020 11/03/2020-11/05/2020 11/17/2020-11/19/2020 12/15/2020-12/17/2020 01/05/2021-01/07/2021 01/20/2021-01/22/2021 02/17/2021-02/19/2021 03/17/2021-03/20/2021 04/14/2021-04/16/2021 05/12/2021-05/14/2021 06/09/2021-06/11/2021 07/07/2021-07/09/2021 08/04/2021-08/06/2021 09/01/2021-09/03/2021 10/05/2021-10/08/2021 10/27/2021-11/02/2021   93</t>
   </si>
   <si>
     <t>If you own the home where you currently live, have you received a notice of foreclosure in the last 30 days?</t>
@@ -123,6 +116,30 @@
     <t xml:space="preserve">• Yes
 • No
 • Not applicable </t>
+  </si>
+  <si>
+    <t>RAPID Team Developed</t>
+  </si>
+  <si>
+    <t>01/05/2021-01/07/2021 01/20/2021-01/22/2021 02/17/2021-02/19/2021 03/17/2021-03/20/2021 04/14/2021-04/16/2021 05/12/2021-05/14/2021 06/09/2021-06/11/2021 07/07/2021-07/09/2021 08/04/2021-08/06/2021 09/01/2021-09/03/2021 10/05/2021-10/08/2021 10/27/2021-11/02/2021 01/03/2022-01/24/2022</t>
+  </si>
+  <si>
+    <t>Have you received a notice of foreclosure in the last 30 days?</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>If you rent the place you currently live, have you received an eviction notice in the last 30 days?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/05/2021-01/07/2021 01/20/2021-01/22/2021 02/17/2021-02/19/2021 03/17/2021-03/20/2021 04/14/2021-04/16/2021 05/12/2021-05/14/2021 06/09/2021-06/11/2021 07/07/2021-07/09/2021 08/04/2021-08/06/2021 09/01/2021-09/03/2021 10/05/2021-10/08/2021 10/27/2021-11/02/2021 11/21/2021-11/24/2021 </t>
+  </si>
+  <si>
+    <t>Have you received an eviction notice in the last 30 days?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please think about the upcoming month: How worried are you about your household not being able to pay the full amount of the rent or mortgage or being late with a payment because your household cannot afford to pay in the next month? </t>
   </si>
   <si>
     <t xml:space="preserve">•Not at all worried
@@ -133,32 +150,43 @@
 •Not applicable </t>
   </si>
   <si>
-    <t>19, 21, 23, 25, 27, 31, 33, 37, 39, 41, 45, 49, 53, 57, 61, 65, 69, 73, 81</t>
-  </si>
-  <si>
-    <t>39, 41, 45, 49, 53, 57, 61, 65, 69, 73, 81</t>
-  </si>
-  <si>
-    <t>19, 21, 23, 25, 27, 31, 33, 37, 39, 45, 49, 53, 57, 61, 65, 69, 73, 81</t>
-  </si>
-  <si>
-    <t>19, 21, 23, 25, 27, 31, 33, 37, 39, 41, 45, 49, 53, 57, 61, 65, 73, 81, 85</t>
-  </si>
-  <si>
-    <t>39, 41, 45, 49, 53, 57, 61, 65, 69, 73, 81, 85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19, 21, 23, 25, 27, 31, 33, 37, 39, 41, 45, 49, 53, 57, 61, 65, 69, 73, 81, </t>
-  </si>
-  <si>
-    <t>39, 41, 45, 49, 53, 57, 61, 65, 69, 73, 81,</t>
+    <t xml:space="preserve">Please think about the upcoming month: How worried are you about having enough money to pay for food to feed your household in the next month? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please think about the upcoming month: If you rent the place you currently live, how worried are you about being evicted in the next month? </t>
+  </si>
+  <si>
+    <t>Please think about the upcoming month: If you own the home where you currently live, how worried are you about your mortgage being foreclosed on in the next month?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please think about the upcoming month: How worried are you about household not being able to pay the full amount of the gas, oil, or electricity bills in the next month?   </t>
+  </si>
+  <si>
+    <t>•Not at all worried
+•Slightly worried
+•Somewhat worried
+•Very worried
+•Extremely worried</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please think about the upcoming month: How worried are you about the gas or electric company turning off service, or the oil company not delivering oil in the next month?  </t>
+  </si>
+  <si>
+    <t>[Display this question if "If you rent the place you currently live, how worried are you about being evicted in the next month?"  Not applicable or Not at all worried is NOT selected OR "If you own the home where you currently live, how worried are you about your mortgae being foreclosed on in the next month?" Not applicable or Not at all worrie is NOT selected] 
+Is there anything else you would like to share about your concern about eviction or foreclosure?</t>
+  </si>
+  <si>
+    <t>Open ended</t>
+  </si>
+  <si>
+    <t>01/05/2021-01/07/2021 01/20/2021-01/22/2021 02/17/2021-02/19/2021 03/17/2021-03/20/2021 04/14/2021-04/16/2021 05/12/2021-05/14/2021 06/09/2021-06/11/2021 07/07/2021-07/09/2021 08/04/2021-08/06/2021 09/01/2021-09/03/2021 10/05/2021-10/08/2021 10/27/2021-11/02/2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1397,23 +1425,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="41.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="41.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="37.5" style="1" customWidth="1"/>
     <col min="3" max="4" width="25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="23.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1426,243 +1454,286 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" ht="47.25">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="362.25">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="346.5">
       <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3"/>
       <c r="E4" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="362.25">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="362.25">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="362.25">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="346.5">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="220.5">
       <c r="A9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="47.25">
+      <c r="A10" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="204.75">
+      <c r="A11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="47.25">
+      <c r="A12" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>28</v>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="362.25">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="346.5">
+      <c r="A14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="362.25">
+      <c r="A15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="362.25">
+      <c r="A16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="204" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="C16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="362.25">
+      <c r="A17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="362.25">
+      <c r="A18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="204.75">
+      <c r="A19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6" t="s">
-        <v>30</v>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/_site/Data/OtherHardships.xlsx
+++ b/_site/Data/OtherHardships.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mii9njSm5lqMqY9alR28bUu+EjPlA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miu6bo5hIhOQjMhAzSfl9iL/1UR9A=="/>
     </ext>
   </extLst>
 </workbook>
@@ -49,7 +49,7 @@
 • Not Listed (please specify)</t>
   </si>
   <si>
-    <t>11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023</t>
+    <t>11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023</t>
   </si>
   <si>
     <t>In the last 30 days, your household did not pay the full amount of the rent or mortgage or was late with a payment because your household could not afford to pay.</t>
@@ -75,7 +75,7 @@
     </r>
   </si>
   <si>
-    <t>08/10/2020-08/13/2020 08/24/2020-08/27/2020 10/05/2020-10/08/2020 09/08/2020-09/10/2020 09/21/2020-09/24/2020 10/05/2020-10/08/2020 11/03/2020-11/05/2020 11/17/2020-11/19/2020 12/15/2020-12/17/2020 01/05/2021-01/07/2021 01/20/2021-01/22/2021 02/17/2021-02/19/2021 03/17/2021-03/20/2021 04/14/2021-04/16/2021 05/12/2021-05/14/2021 06/09/2021-06/11/2021 07/07/2021-07/09/2021 08/04/2021-08/06/2021 09/01/2021-09/03/2021 10/05/2021-10/08/2021 10/27/2021-11/02/2021 01/03/2022-01/24/2022   03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023</t>
+    <t>08/10/2020-08/13/2020 08/24/2020-08/27/2020 10/05/2020-10/08/2020 09/08/2020-09/10/2020 09/21/2020-09/24/2020 10/05/2020-10/08/2020 11/03/2020-11/05/2020 11/17/2020-11/19/2020 12/15/2020-12/17/2020 01/05/2021-01/07/2021 01/20/2021-01/22/2021 02/17/2021-02/19/2021 03/17/2021-03/20/2021 04/14/2021-04/16/2021 05/12/2021-05/14/2021 06/09/2021-06/11/2021 07/07/2021-07/09/2021 08/04/2021-08/06/2021 09/01/2021-09/03/2021 10/05/2021-10/08/2021 10/27/2021-11/02/2021 01/03/2022-01/24/2022   03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023</t>
   </si>
   <si>
     <t>In the last 30 days, you did not have enough money to pay for food to feed your household.</t>
@@ -128,7 +128,7 @@
     <t>Have you received a notice of foreclosure in the last 30 days?</t>
   </si>
   <si>
-    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023</t>
+    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023</t>
   </si>
   <si>
     <t>If you rent the place you currently live, have you received an eviction notice in the last 30 days?</t>
@@ -160,7 +160,7 @@
     <t>Please think about the upcoming month: If you own the home where you currently live, how worried are you about your mortgage being foreclosed on in the next month?</t>
   </si>
   <si>
-    <t>08/10/2020-08/13/2020 08/24/2020-08/27/2020 10/05/2020-10/08/2020 09/08/2020-09/10/2020 09/21/2020-09/24/2020 10/05/2020-10/08/2020 11/03/2020-11/05/2020 11/17/2020-11/19/2020 12/15/2020-12/17/2020 01/05/2021-01/07/2021 01/20/2021-01/22/2021 02/17/2021-02/19/2021 03/17/2021-03/20/2021 04/14/2021-04/16/2021 05/12/2021-05/14/2021 06/09/2021-06/11/2021 07/07/2021-07/09/2021 08/04/2021-08/06/2021 09/01/2021-09/03/2021 10/05/2021-10/08/2021 10/27/2021-11/02/2021 01/03/2022-01/24/2022   03/07/2022-03/16/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023</t>
+    <t>08/10/2020-08/13/2020 08/24/2020-08/27/2020 10/05/2020-10/08/2020 09/08/2020-09/10/2020 09/21/2020-09/24/2020 10/05/2020-10/08/2020 11/03/2020-11/05/2020 11/17/2020-11/19/2020 12/15/2020-12/17/2020 01/05/2021-01/07/2021 01/20/2021-01/22/2021 02/17/2021-02/19/2021 03/17/2021-03/20/2021 04/14/2021-04/16/2021 05/12/2021-05/14/2021 06/09/2021-06/11/2021 07/07/2021-07/09/2021 08/04/2021-08/06/2021 09/01/2021-09/03/2021 10/05/2021-10/08/2021 10/27/2021-11/02/2021 01/03/2022-01/24/2022   03/07/2022-03/16/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Please think about the upcoming month: How worried are you about household not being able to pay the full amount of the gas, oil, or electricity bills in the next month?   </t>
@@ -182,7 +182,7 @@
     <t>What would you like policymakers to know about evictions and foreclosures?</t>
   </si>
   <si>
-    <t>06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023</t>
+    <t>06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023</t>
   </si>
   <si>
     <t>Is home ownership a goal for you?</t>
@@ -193,7 +193,7 @@
 • N/A </t>
   </si>
   <si>
-    <t>10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023</t>
+    <t>10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023</t>
   </si>
   <si>
     <t>What are the current barriers you are facing that are preventing you from owning your own home? Please select all that apply.</t>

--- a/_site/Data/OtherHardships.xlsx
+++ b/_site/Data/OtherHardships.xlsx
@@ -8,8 +8,8 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miu6bo5hIhOQjMhAzSfl9iL/1UR9A=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="MPfy0S5w1382Cg28QrEFGgAXuvO9U9xhI9Ni73fbKZw="/>
     </ext>
   </extLst>
 </workbook>
@@ -49,7 +49,7 @@
 • Not Listed (please specify)</t>
   </si>
   <si>
-    <t>11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023</t>
+    <t>11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023</t>
   </si>
   <si>
     <t>In the last 30 days, your household did not pay the full amount of the rent or mortgage or was late with a payment because your household could not afford to pay.</t>
@@ -75,7 +75,7 @@
     </r>
   </si>
   <si>
-    <t>08/10/2020-08/13/2020 08/24/2020-08/27/2020 10/05/2020-10/08/2020 09/08/2020-09/10/2020 09/21/2020-09/24/2020 10/05/2020-10/08/2020 11/03/2020-11/05/2020 11/17/2020-11/19/2020 12/15/2020-12/17/2020 01/05/2021-01/07/2021 01/20/2021-01/22/2021 02/17/2021-02/19/2021 03/17/2021-03/20/2021 04/14/2021-04/16/2021 05/12/2021-05/14/2021 06/09/2021-06/11/2021 07/07/2021-07/09/2021 08/04/2021-08/06/2021 09/01/2021-09/03/2021 10/05/2021-10/08/2021 10/27/2021-11/02/2021 01/03/2022-01/24/2022   03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023</t>
+    <t>08/10/2020-08/13/2020 08/24/2020-08/27/2020 10/05/2020-10/08/2020 09/08/2020-09/10/2020 09/21/2020-09/24/2020 10/05/2020-10/08/2020 11/03/2020-11/05/2020 11/17/2020-11/19/2020 12/15/2020-12/17/2020 01/05/2021-01/07/2021 01/20/2021-01/22/2021 02/17/2021-02/19/2021 03/17/2021-03/20/2021 04/14/2021-04/16/2021 05/12/2021-05/14/2021 06/09/2021-06/11/2021 07/07/2021-07/09/2021 08/04/2021-08/06/2021 09/01/2021-09/03/2021 10/05/2021-10/08/2021 10/27/2021-11/02/2021 01/03/2022-01/24/2022   03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023</t>
   </si>
   <si>
     <t>In the last 30 days, you did not have enough money to pay for food to feed your household.</t>
@@ -128,7 +128,7 @@
     <t>Have you received a notice of foreclosure in the last 30 days?</t>
   </si>
   <si>
-    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023</t>
+    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023</t>
   </si>
   <si>
     <t>If you rent the place you currently live, have you received an eviction notice in the last 30 days?</t>
@@ -160,7 +160,7 @@
     <t>Please think about the upcoming month: If you own the home where you currently live, how worried are you about your mortgage being foreclosed on in the next month?</t>
   </si>
   <si>
-    <t>08/10/2020-08/13/2020 08/24/2020-08/27/2020 10/05/2020-10/08/2020 09/08/2020-09/10/2020 09/21/2020-09/24/2020 10/05/2020-10/08/2020 11/03/2020-11/05/2020 11/17/2020-11/19/2020 12/15/2020-12/17/2020 01/05/2021-01/07/2021 01/20/2021-01/22/2021 02/17/2021-02/19/2021 03/17/2021-03/20/2021 04/14/2021-04/16/2021 05/12/2021-05/14/2021 06/09/2021-06/11/2021 07/07/2021-07/09/2021 08/04/2021-08/06/2021 09/01/2021-09/03/2021 10/05/2021-10/08/2021 10/27/2021-11/02/2021 01/03/2022-01/24/2022   03/07/2022-03/16/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023</t>
+    <t>08/10/2020-08/13/2020 08/24/2020-08/27/2020 10/05/2020-10/08/2020 09/08/2020-09/10/2020 09/21/2020-09/24/2020 10/05/2020-10/08/2020 11/03/2020-11/05/2020 11/17/2020-11/19/2020 12/15/2020-12/17/2020 01/05/2021-01/07/2021 01/20/2021-01/22/2021 02/17/2021-02/19/2021 03/17/2021-03/20/2021 04/14/2021-04/16/2021 05/12/2021-05/14/2021 06/09/2021-06/11/2021 07/07/2021-07/09/2021 08/04/2021-08/06/2021 09/01/2021-09/03/2021 10/05/2021-10/08/2021 10/27/2021-11/02/2021 01/03/2022-01/24/2022   03/07/2022-03/16/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Please think about the upcoming month: How worried are you about household not being able to pay the full amount of the gas, oil, or electricity bills in the next month?   </t>
@@ -182,7 +182,7 @@
     <t>What would you like policymakers to know about evictions and foreclosures?</t>
   </si>
   <si>
-    <t>06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023</t>
+    <t>06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023</t>
   </si>
   <si>
     <t>Is home ownership a goal for you?</t>
@@ -193,7 +193,7 @@
 • N/A </t>
   </si>
   <si>
-    <t>10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023</t>
+    <t>10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023</t>
   </si>
   <si>
     <t>What are the current barriers you are facing that are preventing you from owning your own home? Please select all that apply.</t>

--- a/_site/Data/OtherHardships.xlsx
+++ b/_site/Data/OtherHardships.xlsx
@@ -49,7 +49,7 @@
 • Not Listed (please specify)</t>
   </si>
   <si>
-    <t>11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023</t>
+    <t>11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023</t>
   </si>
   <si>
     <t>In the last 30 days, your household did not pay the full amount of the rent or mortgage or was late with a payment because your household could not afford to pay.</t>
@@ -75,7 +75,7 @@
     </r>
   </si>
   <si>
-    <t>08/10/2020-08/13/2020 08/24/2020-08/27/2020 10/05/2020-10/08/2020 09/08/2020-09/10/2020 09/21/2020-09/24/2020 10/05/2020-10/08/2020 11/03/2020-11/05/2020 11/17/2020-11/19/2020 12/15/2020-12/17/2020 01/05/2021-01/07/2021 01/20/2021-01/22/2021 02/17/2021-02/19/2021 03/17/2021-03/20/2021 04/14/2021-04/16/2021 05/12/2021-05/14/2021 06/09/2021-06/11/2021 07/07/2021-07/09/2021 08/04/2021-08/06/2021 09/01/2021-09/03/2021 10/05/2021-10/08/2021 10/27/2021-11/02/2021 01/03/2022-01/24/2022   03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023</t>
+    <t>08/10/2020-08/13/2020 08/24/2020-08/27/2020 10/05/2020-10/08/2020 09/08/2020-09/10/2020 09/21/2020-09/24/2020 10/05/2020-10/08/2020 11/03/2020-11/05/2020 11/17/2020-11/19/2020 12/15/2020-12/17/2020 01/05/2021-01/07/2021 01/20/2021-01/22/2021 02/17/2021-02/19/2021 03/17/2021-03/20/2021 04/14/2021-04/16/2021 05/12/2021-05/14/2021 06/09/2021-06/11/2021 07/07/2021-07/09/2021 08/04/2021-08/06/2021 09/01/2021-09/03/2021 10/05/2021-10/08/2021 10/27/2021-11/02/2021 01/03/2022-01/24/2022   03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023</t>
   </si>
   <si>
     <t>In the last 30 days, you did not have enough money to pay for food to feed your household.</t>
@@ -128,7 +128,7 @@
     <t>Have you received a notice of foreclosure in the last 30 days?</t>
   </si>
   <si>
-    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023</t>
+    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023</t>
   </si>
   <si>
     <t>If you rent the place you currently live, have you received an eviction notice in the last 30 days?</t>
@@ -160,7 +160,7 @@
     <t>Please think about the upcoming month: If you own the home where you currently live, how worried are you about your mortgage being foreclosed on in the next month?</t>
   </si>
   <si>
-    <t>08/10/2020-08/13/2020 08/24/2020-08/27/2020 10/05/2020-10/08/2020 09/08/2020-09/10/2020 09/21/2020-09/24/2020 10/05/2020-10/08/2020 11/03/2020-11/05/2020 11/17/2020-11/19/2020 12/15/2020-12/17/2020 01/05/2021-01/07/2021 01/20/2021-01/22/2021 02/17/2021-02/19/2021 03/17/2021-03/20/2021 04/14/2021-04/16/2021 05/12/2021-05/14/2021 06/09/2021-06/11/2021 07/07/2021-07/09/2021 08/04/2021-08/06/2021 09/01/2021-09/03/2021 10/05/2021-10/08/2021 10/27/2021-11/02/2021 01/03/2022-01/24/2022   03/07/2022-03/16/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023</t>
+    <t>08/10/2020-08/13/2020 08/24/2020-08/27/2020 10/05/2020-10/08/2020 09/08/2020-09/10/2020 09/21/2020-09/24/2020 10/05/2020-10/08/2020 11/03/2020-11/05/2020 11/17/2020-11/19/2020 12/15/2020-12/17/2020 01/05/2021-01/07/2021 01/20/2021-01/22/2021 02/17/2021-02/19/2021 03/17/2021-03/20/2021 04/14/2021-04/16/2021 05/12/2021-05/14/2021 06/09/2021-06/11/2021 07/07/2021-07/09/2021 08/04/2021-08/06/2021 09/01/2021-09/03/2021 10/05/2021-10/08/2021 10/27/2021-11/02/2021 01/03/2022-01/24/2022   03/07/2022-03/16/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Please think about the upcoming month: How worried are you about household not being able to pay the full amount of the gas, oil, or electricity bills in the next month?   </t>
@@ -182,7 +182,7 @@
     <t>What would you like policymakers to know about evictions and foreclosures?</t>
   </si>
   <si>
-    <t>06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023</t>
+    <t>06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023</t>
   </si>
   <si>
     <t>Is home ownership a goal for you?</t>
@@ -193,7 +193,7 @@
 • N/A </t>
   </si>
   <si>
-    <t>10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023</t>
+    <t>10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023</t>
   </si>
   <si>
     <t>What are the current barriers you are facing that are preventing you from owning your own home? Please select all that apply.</t>

--- a/_site/Data/OtherHardships.xlsx
+++ b/_site/Data/OtherHardships.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="MPfy0S5w1382Cg28QrEFGgAXuvO9U9xhI9Ni73fbKZw="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="+2F1V7Nj1pHrW7ag3benjD7ilkOGhiyCnh5h/rYJhHA="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="57">
   <si>
     <t>Question</t>
   </si>
@@ -49,7 +49,7 @@
 • Not Listed (please specify)</t>
   </si>
   <si>
-    <t>11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023</t>
+    <t>11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023</t>
   </si>
   <si>
     <t>In the last 30 days, your household did not pay the full amount of the rent or mortgage or was late with a payment because your household could not afford to pay.</t>
@@ -78,6 +78,17 @@
     <t>08/10/2020-08/13/2020 08/24/2020-08/27/2020 10/05/2020-10/08/2020 09/08/2020-09/10/2020 09/21/2020-09/24/2020 10/05/2020-10/08/2020 11/03/2020-11/05/2020 11/17/2020-11/19/2020 12/15/2020-12/17/2020 01/05/2021-01/07/2021 01/20/2021-01/22/2021 02/17/2021-02/19/2021 03/17/2021-03/20/2021 04/14/2021-04/16/2021 05/12/2021-05/14/2021 06/09/2021-06/11/2021 07/07/2021-07/09/2021 08/04/2021-08/06/2021 09/01/2021-09/03/2021 10/05/2021-10/08/2021 10/27/2021-11/02/2021 01/03/2022-01/24/2022   03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023</t>
   </si>
   <si>
+    <t>In the last 30 days, did you not pay the full amount of the rent or mortgage or were you late with a payment because you could not afford to pay?</t>
+  </si>
+  <si>
+    <t>• Yes
+• No
+• Not applicable</t>
+  </si>
+  <si>
+    <t>08/02/2023-08/09/2023</t>
+  </si>
+  <si>
     <t>In the last 30 days, you did not have enough money to pay for food to feed your household.</t>
   </si>
   <si>
@@ -104,6 +115,12 @@
     <t xml:space="preserve">In the last 30 days, your mortgage (for the home you lived in and owned) was foreclosed on. </t>
   </si>
   <si>
+    <t>In the last 30 days, was your mortgage (for the home you lived in and owned) foreclosed on?</t>
+  </si>
+  <si>
+    <t>In the last 30 days, were you evicted from the place you rented?</t>
+  </si>
+  <si>
     <t>In the last 30 days, your household was not able to pay the full amount of the gas, oil, or electricity bills.</t>
   </si>
   <si>
@@ -128,7 +145,7 @@
     <t>Have you received a notice of foreclosure in the last 30 days?</t>
   </si>
   <si>
-    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023</t>
+    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023</t>
   </si>
   <si>
     <t>If you rent the place you currently live, have you received an eviction notice in the last 30 days?</t>
@@ -151,6 +168,9 @@
 • Not applicable </t>
   </si>
   <si>
+    <t>08/10/2020-08/13/2020 08/24/2020-08/27/2020 10/05/2020-10/08/2020 09/08/2020-09/10/2020 09/21/2020-09/24/2020 10/05/2020-10/08/2020 11/03/2020-11/05/2020 11/17/2020-11/19/2020 12/15/2020-12/17/2020 01/05/2021-01/07/2021 01/20/2021-01/22/2021 02/17/2021-02/19/2021 03/17/2021-03/20/2021 04/14/2021-04/16/2021 05/12/2021-05/14/2021 06/09/2021-06/11/2021 07/07/2021-07/09/2021 08/04/2021-08/06/2021 09/01/2021-09/03/2021 10/05/2021-10/08/2021 10/27/2021-11/02/2021 01/03/2022-01/24/2022   03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023</t>
+  </si>
+  <si>
     <t xml:space="preserve">Please think about the upcoming month: How worried are you about having enough money to pay for food to feed your household in the next month? </t>
   </si>
   <si>
@@ -160,7 +180,7 @@
     <t>Please think about the upcoming month: If you own the home where you currently live, how worried are you about your mortgage being foreclosed on in the next month?</t>
   </si>
   <si>
-    <t>08/10/2020-08/13/2020 08/24/2020-08/27/2020 10/05/2020-10/08/2020 09/08/2020-09/10/2020 09/21/2020-09/24/2020 10/05/2020-10/08/2020 11/03/2020-11/05/2020 11/17/2020-11/19/2020 12/15/2020-12/17/2020 01/05/2021-01/07/2021 01/20/2021-01/22/2021 02/17/2021-02/19/2021 03/17/2021-03/20/2021 04/14/2021-04/16/2021 05/12/2021-05/14/2021 06/09/2021-06/11/2021 07/07/2021-07/09/2021 08/04/2021-08/06/2021 09/01/2021-09/03/2021 10/05/2021-10/08/2021 10/27/2021-11/02/2021 01/03/2022-01/24/2022   03/07/2022-03/16/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023</t>
+    <t>08/10/2020-08/13/2020 08/24/2020-08/27/2020 10/05/2020-10/08/2020 09/08/2020-09/10/2020 09/21/2020-09/24/2020 10/05/2020-10/08/2020 11/03/2020-11/05/2020 11/17/2020-11/19/2020 12/15/2020-12/17/2020 01/05/2021-01/07/2021 01/20/2021-01/22/2021 02/17/2021-02/19/2021 03/17/2021-03/20/2021 04/14/2021-04/16/2021 05/12/2021-05/14/2021 06/09/2021-06/11/2021 07/07/2021-07/09/2021 08/04/2021-08/06/2021 09/01/2021-09/03/2021 10/05/2021-10/08/2021 10/27/2021-11/02/2021 01/03/2022-01/24/2022   03/07/2022-03/16/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Please think about the upcoming month: How worried are you about household not being able to pay the full amount of the gas, oil, or electricity bills in the next month?   </t>
@@ -182,7 +202,7 @@
     <t>What would you like policymakers to know about evictions and foreclosures?</t>
   </si>
   <si>
-    <t>06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023</t>
+    <t>06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023</t>
   </si>
   <si>
     <t>Is home ownership a goal for you?</t>
@@ -714,19 +734,15 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="2"/>
@@ -759,11 +775,13 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="3" t="s">
-        <v>14</v>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -789,13 +807,13 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="3" t="s">
@@ -825,17 +843,17 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -860,18 +878,16 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>23</v>
+      <c r="A9" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="C9" s="1"/>
       <c r="D9" s="5"/>
       <c r="E9" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -896,18 +912,16 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="1" t="s">
-        <v>27</v>
+      <c r="E10" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -933,17 +947,17 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -969,17 +983,17 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="1" t="s">
-        <v>31</v>
+      <c r="E12" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1005,17 +1019,17 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D13" s="5"/>
-      <c r="E13" s="3" t="s">
-        <v>29</v>
+      <c r="E13" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1043,15 +1057,15 @@
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>34</v>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="3" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1080,14 +1094,14 @@
         <v>35</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1113,17 +1127,17 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="3" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1149,17 +1163,17 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1185,17 +1199,17 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D18" s="5"/>
-      <c r="E18" s="3" t="s">
-        <v>14</v>
+      <c r="E18" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1221,17 +1235,17 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1257,17 +1271,17 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>42</v>
+      <c r="B20" s="3" t="s">
+        <v>39</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>26</v>
+      <c r="C20" s="1" t="s">
+        <v>22</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="1" t="s">
-        <v>43</v>
+      <c r="D20" s="5"/>
+      <c r="E20" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1292,16 +1306,18 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="9" t="s">
-        <v>44</v>
+      <c r="A21" s="1" t="s">
+        <v>45</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>42</v>
+      <c r="B21" s="3" t="s">
+        <v>39</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13" t="s">
-        <v>45</v>
+      <c r="C21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1325,17 +1341,19 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" ht="84.0" customHeight="1">
-      <c r="A22" s="14" t="s">
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>47</v>
+      <c r="B22" s="3" t="s">
+        <v>39</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="14" t="s">
-        <v>48</v>
+      <c r="C22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1359,17 +1377,19 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" ht="162.75" customHeight="1">
-      <c r="A23" s="14" t="s">
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="14" t="s">
-        <v>48</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1394,11 +1414,17 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
+      <c r="A24" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13" t="s">
+        <v>51</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -1421,12 +1447,18 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
+    <row r="25" ht="84.0" customHeight="1">
+      <c r="A25" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -1449,12 +1481,18 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
+    <row r="26" ht="162.75" customHeight="1">
+      <c r="A26" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -28805,10 +28843,94 @@
       <c r="Y1002" s="2"/>
       <c r="Z1002" s="2"/>
     </row>
+    <row r="1003" ht="15.75" customHeight="1">
+      <c r="A1003" s="16"/>
+      <c r="B1003" s="16"/>
+      <c r="C1003" s="16"/>
+      <c r="D1003" s="16"/>
+      <c r="E1003" s="16"/>
+      <c r="F1003" s="2"/>
+      <c r="G1003" s="2"/>
+      <c r="H1003" s="2"/>
+      <c r="I1003" s="2"/>
+      <c r="J1003" s="2"/>
+      <c r="K1003" s="2"/>
+      <c r="L1003" s="2"/>
+      <c r="M1003" s="2"/>
+      <c r="N1003" s="2"/>
+      <c r="O1003" s="2"/>
+      <c r="P1003" s="2"/>
+      <c r="Q1003" s="2"/>
+      <c r="R1003" s="2"/>
+      <c r="S1003" s="2"/>
+      <c r="T1003" s="2"/>
+      <c r="U1003" s="2"/>
+      <c r="V1003" s="2"/>
+      <c r="W1003" s="2"/>
+      <c r="X1003" s="2"/>
+      <c r="Y1003" s="2"/>
+      <c r="Z1003" s="2"/>
+    </row>
+    <row r="1004" ht="15.75" customHeight="1">
+      <c r="A1004" s="16"/>
+      <c r="B1004" s="16"/>
+      <c r="C1004" s="16"/>
+      <c r="D1004" s="16"/>
+      <c r="E1004" s="16"/>
+      <c r="F1004" s="2"/>
+      <c r="G1004" s="2"/>
+      <c r="H1004" s="2"/>
+      <c r="I1004" s="2"/>
+      <c r="J1004" s="2"/>
+      <c r="K1004" s="2"/>
+      <c r="L1004" s="2"/>
+      <c r="M1004" s="2"/>
+      <c r="N1004" s="2"/>
+      <c r="O1004" s="2"/>
+      <c r="P1004" s="2"/>
+      <c r="Q1004" s="2"/>
+      <c r="R1004" s="2"/>
+      <c r="S1004" s="2"/>
+      <c r="T1004" s="2"/>
+      <c r="U1004" s="2"/>
+      <c r="V1004" s="2"/>
+      <c r="W1004" s="2"/>
+      <c r="X1004" s="2"/>
+      <c r="Y1004" s="2"/>
+      <c r="Z1004" s="2"/>
+    </row>
+    <row r="1005" ht="15.75" customHeight="1">
+      <c r="A1005" s="16"/>
+      <c r="B1005" s="16"/>
+      <c r="C1005" s="16"/>
+      <c r="D1005" s="16"/>
+      <c r="E1005" s="16"/>
+      <c r="F1005" s="2"/>
+      <c r="G1005" s="2"/>
+      <c r="H1005" s="2"/>
+      <c r="I1005" s="2"/>
+      <c r="J1005" s="2"/>
+      <c r="K1005" s="2"/>
+      <c r="L1005" s="2"/>
+      <c r="M1005" s="2"/>
+      <c r="N1005" s="2"/>
+      <c r="O1005" s="2"/>
+      <c r="P1005" s="2"/>
+      <c r="Q1005" s="2"/>
+      <c r="R1005" s="2"/>
+      <c r="S1005" s="2"/>
+      <c r="T1005" s="2"/>
+      <c r="U1005" s="2"/>
+      <c r="V1005" s="2"/>
+      <c r="W1005" s="2"/>
+      <c r="X1005" s="2"/>
+      <c r="Y1005" s="2"/>
+      <c r="Z1005" s="2"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="D4"/>
-    <hyperlink r:id="rId2" ref="D5"/>
+    <hyperlink r:id="rId2" ref="D6"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/_site/Data/OtherHardships.xlsx
+++ b/_site/Data/OtherHardships.xlsx
@@ -49,7 +49,7 @@
 • Not Listed (please specify)</t>
   </si>
   <si>
-    <t>11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023</t>
+    <t>11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023</t>
   </si>
   <si>
     <t>In the last 30 days, your household did not pay the full amount of the rent or mortgage or was late with a payment because your household could not afford to pay.</t>
@@ -86,7 +86,7 @@
 • Not applicable</t>
   </si>
   <si>
-    <t>08/02/2023-08/09/2023</t>
+    <t>08/02/2023-08/09/2023 09/06/2023-09/13/2023</t>
   </si>
   <si>
     <t>In the last 30 days, you did not have enough money to pay for food to feed your household.</t>
@@ -145,7 +145,7 @@
     <t>Have you received a notice of foreclosure in the last 30 days?</t>
   </si>
   <si>
-    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023</t>
+    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023</t>
   </si>
   <si>
     <t>If you rent the place you currently live, have you received an eviction notice in the last 30 days?</t>
@@ -168,7 +168,7 @@
 • Not applicable </t>
   </si>
   <si>
-    <t>08/10/2020-08/13/2020 08/24/2020-08/27/2020 10/05/2020-10/08/2020 09/08/2020-09/10/2020 09/21/2020-09/24/2020 10/05/2020-10/08/2020 11/03/2020-11/05/2020 11/17/2020-11/19/2020 12/15/2020-12/17/2020 01/05/2021-01/07/2021 01/20/2021-01/22/2021 02/17/2021-02/19/2021 03/17/2021-03/20/2021 04/14/2021-04/16/2021 05/12/2021-05/14/2021 06/09/2021-06/11/2021 07/07/2021-07/09/2021 08/04/2021-08/06/2021 09/01/2021-09/03/2021 10/05/2021-10/08/2021 10/27/2021-11/02/2021 01/03/2022-01/24/2022   03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023</t>
+    <t>08/10/2020-08/13/2020 08/24/2020-08/27/2020 10/05/2020-10/08/2020 09/08/2020-09/10/2020 09/21/2020-09/24/2020 10/05/2020-10/08/2020 11/03/2020-11/05/2020 11/17/2020-11/19/2020 12/15/2020-12/17/2020 01/05/2021-01/07/2021 01/20/2021-01/22/2021 02/17/2021-02/19/2021 03/17/2021-03/20/2021 04/14/2021-04/16/2021 05/12/2021-05/14/2021 06/09/2021-06/11/2021 07/07/2021-07/09/2021 08/04/2021-08/06/2021 09/01/2021-09/03/2021 10/05/2021-10/08/2021 10/27/2021-11/02/2021 01/03/2022-01/24/2022   03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Please think about the upcoming month: How worried are you about having enough money to pay for food to feed your household in the next month? </t>
@@ -180,7 +180,7 @@
     <t>Please think about the upcoming month: If you own the home where you currently live, how worried are you about your mortgage being foreclosed on in the next month?</t>
   </si>
   <si>
-    <t>08/10/2020-08/13/2020 08/24/2020-08/27/2020 10/05/2020-10/08/2020 09/08/2020-09/10/2020 09/21/2020-09/24/2020 10/05/2020-10/08/2020 11/03/2020-11/05/2020 11/17/2020-11/19/2020 12/15/2020-12/17/2020 01/05/2021-01/07/2021 01/20/2021-01/22/2021 02/17/2021-02/19/2021 03/17/2021-03/20/2021 04/14/2021-04/16/2021 05/12/2021-05/14/2021 06/09/2021-06/11/2021 07/07/2021-07/09/2021 08/04/2021-08/06/2021 09/01/2021-09/03/2021 10/05/2021-10/08/2021 10/27/2021-11/02/2021 01/03/2022-01/24/2022   03/07/2022-03/16/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023</t>
+    <t>08/10/2020-08/13/2020 08/24/2020-08/27/2020 10/05/2020-10/08/2020 09/08/2020-09/10/2020 09/21/2020-09/24/2020 10/05/2020-10/08/2020 11/03/2020-11/05/2020 11/17/2020-11/19/2020 12/15/2020-12/17/2020 01/05/2021-01/07/2021 01/20/2021-01/22/2021 02/17/2021-02/19/2021 03/17/2021-03/20/2021 04/14/2021-04/16/2021 05/12/2021-05/14/2021 06/09/2021-06/11/2021 07/07/2021-07/09/2021 08/04/2021-08/06/2021 09/01/2021-09/03/2021 10/05/2021-10/08/2021 10/27/2021-11/02/2021 01/03/2022-01/24/2022   03/07/2022-03/16/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Please think about the upcoming month: How worried are you about household not being able to pay the full amount of the gas, oil, or electricity bills in the next month?   </t>
@@ -202,7 +202,7 @@
     <t>What would you like policymakers to know about evictions and foreclosures?</t>
   </si>
   <si>
-    <t>06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023</t>
+    <t>06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023</t>
   </si>
   <si>
     <t>Is home ownership a goal for you?</t>

--- a/_site/Data/OtherHardships.xlsx
+++ b/_site/Data/OtherHardships.xlsx
@@ -49,7 +49,7 @@
 • Not Listed (please specify)</t>
   </si>
   <si>
-    <t>11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023</t>
+    <t>11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023</t>
   </si>
   <si>
     <t>In the last 30 days, your household did not pay the full amount of the rent or mortgage or was late with a payment because your household could not afford to pay.</t>
@@ -86,7 +86,7 @@
 • Not applicable</t>
   </si>
   <si>
-    <t>08/02/2023-08/09/2023 09/06/2023-09/13/2023</t>
+    <t>08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023</t>
   </si>
   <si>
     <t>In the last 30 days, you did not have enough money to pay for food to feed your household.</t>
@@ -145,7 +145,7 @@
     <t>Have you received a notice of foreclosure in the last 30 days?</t>
   </si>
   <si>
-    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023</t>
+    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023</t>
   </si>
   <si>
     <t>If you rent the place you currently live, have you received an eviction notice in the last 30 days?</t>
@@ -168,7 +168,7 @@
 • Not applicable </t>
   </si>
   <si>
-    <t>08/10/2020-08/13/2020 08/24/2020-08/27/2020 10/05/2020-10/08/2020 09/08/2020-09/10/2020 09/21/2020-09/24/2020 10/05/2020-10/08/2020 11/03/2020-11/05/2020 11/17/2020-11/19/2020 12/15/2020-12/17/2020 01/05/2021-01/07/2021 01/20/2021-01/22/2021 02/17/2021-02/19/2021 03/17/2021-03/20/2021 04/14/2021-04/16/2021 05/12/2021-05/14/2021 06/09/2021-06/11/2021 07/07/2021-07/09/2021 08/04/2021-08/06/2021 09/01/2021-09/03/2021 10/05/2021-10/08/2021 10/27/2021-11/02/2021 01/03/2022-01/24/2022   03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023</t>
+    <t>08/10/2020-08/13/2020 08/24/2020-08/27/2020 10/05/2020-10/08/2020 09/08/2020-09/10/2020 09/21/2020-09/24/2020 10/05/2020-10/08/2020 11/03/2020-11/05/2020 11/17/2020-11/19/2020 12/15/2020-12/17/2020 01/05/2021-01/07/2021 01/20/2021-01/22/2021 02/17/2021-02/19/2021 03/17/2021-03/20/2021 04/14/2021-04/16/2021 05/12/2021-05/14/2021 06/09/2021-06/11/2021 07/07/2021-07/09/2021 08/04/2021-08/06/2021 09/01/2021-09/03/2021 10/05/2021-10/08/2021 10/27/2021-11/02/2021 01/03/2022-01/24/2022   03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Please think about the upcoming month: How worried are you about having enough money to pay for food to feed your household in the next month? </t>
@@ -180,7 +180,7 @@
     <t>Please think about the upcoming month: If you own the home where you currently live, how worried are you about your mortgage being foreclosed on in the next month?</t>
   </si>
   <si>
-    <t>08/10/2020-08/13/2020 08/24/2020-08/27/2020 10/05/2020-10/08/2020 09/08/2020-09/10/2020 09/21/2020-09/24/2020 10/05/2020-10/08/2020 11/03/2020-11/05/2020 11/17/2020-11/19/2020 12/15/2020-12/17/2020 01/05/2021-01/07/2021 01/20/2021-01/22/2021 02/17/2021-02/19/2021 03/17/2021-03/20/2021 04/14/2021-04/16/2021 05/12/2021-05/14/2021 06/09/2021-06/11/2021 07/07/2021-07/09/2021 08/04/2021-08/06/2021 09/01/2021-09/03/2021 10/05/2021-10/08/2021 10/27/2021-11/02/2021 01/03/2022-01/24/2022   03/07/2022-03/16/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023</t>
+    <t>08/10/2020-08/13/2020 08/24/2020-08/27/2020 10/05/2020-10/08/2020 09/08/2020-09/10/2020 09/21/2020-09/24/2020 10/05/2020-10/08/2020 11/03/2020-11/05/2020 11/17/2020-11/19/2020 12/15/2020-12/17/2020 01/05/2021-01/07/2021 01/20/2021-01/22/2021 02/17/2021-02/19/2021 03/17/2021-03/20/2021 04/14/2021-04/16/2021 05/12/2021-05/14/2021 06/09/2021-06/11/2021 07/07/2021-07/09/2021 08/04/2021-08/06/2021 09/01/2021-09/03/2021 10/05/2021-10/08/2021 10/27/2021-11/02/2021 01/03/2022-01/24/2022   03/07/2022-03/16/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Please think about the upcoming month: How worried are you about household not being able to pay the full amount of the gas, oil, or electricity bills in the next month?   </t>
@@ -202,7 +202,7 @@
     <t>What would you like policymakers to know about evictions and foreclosures?</t>
   </si>
   <si>
-    <t>06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023</t>
+    <t>06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023</t>
   </si>
   <si>
     <t>Is home ownership a goal for you?</t>

--- a/_site/Data/OtherHardships.xlsx
+++ b/_site/Data/OtherHardships.xlsx
@@ -8,8 +8,8 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="+2F1V7Nj1pHrW7ag3benjD7ilkOGhiyCnh5h/rYJhHA="/>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhPMST1IxKeL8xPnpwPDyYb35ggew=="/>
     </ext>
   </extLst>
 </workbook>
@@ -36,9 +36,9 @@
     <t>Please describe your housing status:</t>
   </si>
   <si>
-    <t xml:space="preserve">• I rent the home I live in 
-• I own the home I live in  
-• Not applicable/I am currently houseless  </t>
+    <t>• I rent the home I live in
+• I own the home I live in
+• Not applicable/I am currently houseless</t>
   </si>
   <si>
     <t>01/03/2022-01/24/2022 03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022</t>
@@ -49,7 +49,7 @@
 • Not Listed (please specify)</t>
   </si>
   <si>
-    <t>11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023</t>
+    <t>11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023 11/02/2023-11/09/2023</t>
   </si>
   <si>
     <t>In the last 30 days, your household did not pay the full amount of the rent or mortgage or was late with a payment because your household could not afford to pay.</t>
@@ -86,7 +86,7 @@
 • Not applicable</t>
   </si>
   <si>
-    <t>08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023</t>
+    <t>08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023 11/02/2023-11/09/2023</t>
   </si>
   <si>
     <t>In the last 30 days, you did not have enough money to pay for food to feed your household.</t>
@@ -145,7 +145,7 @@
     <t>Have you received a notice of foreclosure in the last 30 days?</t>
   </si>
   <si>
-    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023</t>
+    <t>03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023 11/02/2023-11/09/2023</t>
   </si>
   <si>
     <t>If you rent the place you currently live, have you received an eviction notice in the last 30 days?</t>
@@ -168,7 +168,7 @@
 • Not applicable </t>
   </si>
   <si>
-    <t>08/10/2020-08/13/2020 08/24/2020-08/27/2020 10/05/2020-10/08/2020 09/08/2020-09/10/2020 09/21/2020-09/24/2020 10/05/2020-10/08/2020 11/03/2020-11/05/2020 11/17/2020-11/19/2020 12/15/2020-12/17/2020 01/05/2021-01/07/2021 01/20/2021-01/22/2021 02/17/2021-02/19/2021 03/17/2021-03/20/2021 04/14/2021-04/16/2021 05/12/2021-05/14/2021 06/09/2021-06/11/2021 07/07/2021-07/09/2021 08/04/2021-08/06/2021 09/01/2021-09/03/2021 10/05/2021-10/08/2021 10/27/2021-11/02/2021 01/03/2022-01/24/2022   03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023</t>
+    <t>08/10/2020-08/13/2020 08/24/2020-08/27/2020 10/05/2020-10/08/2020 09/08/2020-09/10/2020 09/21/2020-09/24/2020 10/05/2020-10/08/2020 11/03/2020-11/05/2020 11/17/2020-11/19/2020 12/15/2020-12/17/2020 01/05/2021-01/07/2021 01/20/2021-01/22/2021 02/17/2021-02/19/2021 03/17/2021-03/20/2021 04/14/2021-04/16/2021 05/12/2021-05/14/2021 06/09/2021-06/11/2021 07/07/2021-07/09/2021 08/04/2021-08/06/2021 09/01/2021-09/03/2021 10/05/2021-10/08/2021 10/27/2021-11/02/2021 01/03/2022-01/24/2022   03/07/2022-03/16/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023 11/02/2023-11/09/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Please think about the upcoming month: How worried are you about having enough money to pay for food to feed your household in the next month? </t>
@@ -180,7 +180,7 @@
     <t>Please think about the upcoming month: If you own the home where you currently live, how worried are you about your mortgage being foreclosed on in the next month?</t>
   </si>
   <si>
-    <t>08/10/2020-08/13/2020 08/24/2020-08/27/2020 10/05/2020-10/08/2020 09/08/2020-09/10/2020 09/21/2020-09/24/2020 10/05/2020-10/08/2020 11/03/2020-11/05/2020 11/17/2020-11/19/2020 12/15/2020-12/17/2020 01/05/2021-01/07/2021 01/20/2021-01/22/2021 02/17/2021-02/19/2021 03/17/2021-03/20/2021 04/14/2021-04/16/2021 05/12/2021-05/14/2021 06/09/2021-06/11/2021 07/07/2021-07/09/2021 08/04/2021-08/06/2021 09/01/2021-09/03/2021 10/05/2021-10/08/2021 10/27/2021-11/02/2021 01/03/2022-01/24/2022   03/07/2022-03/16/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023</t>
+    <t>08/10/2020-08/13/2020 08/24/2020-08/27/2020 10/05/2020-10/08/2020 09/08/2020-09/10/2020 09/21/2020-09/24/2020 10/05/2020-10/08/2020 11/03/2020-11/05/2020 11/17/2020-11/19/2020 12/15/2020-12/17/2020 01/05/2021-01/07/2021 01/20/2021-01/22/2021 02/17/2021-02/19/2021 03/17/2021-03/20/2021 04/14/2021-04/16/2021 05/12/2021-05/14/2021 06/09/2021-06/11/2021 07/07/2021-07/09/2021 08/04/2021-08/06/2021 09/01/2021-09/03/2021 10/05/2021-10/08/2021 10/27/2021-11/02/2021 01/03/2022-01/24/2022   03/07/2022-03/16/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023 11/02/2023-11/09/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Please think about the upcoming month: How worried are you about household not being able to pay the full amount of the gas, oil, or electricity bills in the next month?   </t>
@@ -202,7 +202,7 @@
     <t>What would you like policymakers to know about evictions and foreclosures?</t>
   </si>
   <si>
-    <t>06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023</t>
+    <t>06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023 11/02/2023-11/09/2023</t>
   </si>
   <si>
     <t>Is home ownership a goal for you?</t>
@@ -806,7 +806,7 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -842,7 +842,7 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="3" t="s">
